--- a/imageCreationExcel/back/110/110_10.xlsx
+++ b/imageCreationExcel/back/110/110_10.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.071323141200341</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.3312343751889208</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>18.20084165181285</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_E_gamma1.071_sharpness0.331_equalization18.201.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +528,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8553777525599757</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7382098412020982</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>16.66455857450791</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_1_gamma0.855_sharpness0.738_equalization16.665.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +579,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9779096465090888</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.05680233706884986</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.201288468857013</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_E_contrast0.978_sharpness0.057_equalization4.201.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.84894701595999</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9492389653584488</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>22.30031942530549</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_P_gamma0.849_sharpness0.949_equalization22.3.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8672064811271363</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.02181154244542477</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>21.98772007436693</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_T_contrast0.867_sharpness0.022_equalization21.988.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.048170201578963</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9993254860637331</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>31.38323891217093</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_1_gamma1.048_sharpness0.999_equalization31.383.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22.37493024713382</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5059938235513063</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.1526939079817316</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_9_brightness22.375_gamma0.506_sharpness0.153.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9381650263361727</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.580798070259664</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.251583689969656</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_E_contrast0.938_gamma0.581_sharpness0.252.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.955902580278195</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.7984996171362465</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.4106400863110944</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_2_contrast0.956_gamma0.798_sharpness0.411.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5187693901479875</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5985411777791183</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>29.9875573099513</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_S_gamma0.519_sharpness0.599_equalization29.988.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -911,34 +911,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7.406145463143633</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.122388723037409</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8648406446090164</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_2_brightness7.406_contrast1.122_sharpness0.865.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,16 +948,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28.74117256412314</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5773528860599098</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.4542167211959411</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_1_brightness28.741_gamma0.577_sharpness0.454.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,30 +999,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.111235045319523</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7470739117950912</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.05685084996492504</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_0_contrast1.111_gamma0.747_sharpness0.057.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28.51037692362519</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5702027315549572</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.371228916463459</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_2_brightness28.51_gamma0.57_sharpness0.371.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.5376975673797457</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8010019166544134</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.5573542710380892</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_P_brightness0.538_gamma0.801_sharpness0.557.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15.92399142403269</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.027619621822154</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8386608446278101</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_0_brightness15.924_contrast1.028_gamma0.839.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>25.67229975011474</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9688072347790269</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.5362660128074868</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_B_brightness25.672_contrast0.969_sharpness0.536.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.6314046960017093</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.2104418116467045</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>24.84318908954873</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_P_gamma0.631_sharpness0.21_equalization24.843.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14.38329268976088</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9228616310441384</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.1303446906462435</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_9_brightness14.383_contrast0.923_sharpness0.13.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20.87896574232334</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.7292677142306975</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.3570537157077933</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_S_brightness20.879_gamma0.729_sharpness0.357.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,15 +1335,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.016700380148706</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.6430382550163413</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>30.97296877171931</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_2_contrast1.017_sharpness0.643_equalization30.973.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,16 +1368,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8219073384030863</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5122035851889251</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>21.60919207857242</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_3_contrast0.822_gamma0.512_equalization21.609.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.168621909076537</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.6768625316361737</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5.551211201285642</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_9_contrast1.169_sharpness0.677_equalization5.551.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,30 +1461,30 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9616463549399235</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.6688816023343982</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.8502678388049976</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_P_contrast0.962_gamma0.669_sharpness0.85.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,15 +1503,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20.30659943309221</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.14943474221847</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.5369253811651061</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_brightness20.307_contrast1.149_sharpness0.537.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.035207470709228</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5314339085114536</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.8925679213206753</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_3_contrast1.035_gamma0.531_sharpness0.893.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26.32028501723307</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8975093432504695</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.8713286956045903</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_B_brightness26.32_contrast0.898_sharpness0.871.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6.132325978632213</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.7010137608792549</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.8470396023727762</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_P_brightness6.132_gamma0.701_sharpness0.847.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9106428774259416</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.6802979122423314</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.4957071870453904</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_T_contrast0.911_gamma0.68_sharpness0.496.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.045795555213574</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8889514202068273</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>26.38772747034948</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_P_gamma1.046_sharpness0.889_equalization26.388.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,30 +1755,30 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9379528230234088</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.7522135008429975</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.6286371669728373</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_B_contrast0.938_gamma0.752_sharpness0.629.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,24 +1788,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>18.23053261834659</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8027983755383774</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.2746244320461783</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_3_brightness18.231_contrast0.803_sharpness0.275.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.095820417328872</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5872924613472115</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>23.8715458026625</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_1_contrast1.096_sharpness0.587_equalization23.872.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.195172288962049</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5121231151110124</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>26.7355474279104</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_7_contrast1.195_gamma0.512_equalization26.736.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8875615807724613</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.7844077061713939</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>18.75507421629744</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_1_contrast0.888_sharpness0.784_equalization18.755.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10.79118855284997</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9429809616797256</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.9843602251394548</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_P_brightness10.791_contrast0.943_sharpness0.984.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,24 +1998,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.037028296359367</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.4172790097266612</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>11.60630598657722</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_2_gamma1.037_sharpness0.417_equalization11.606.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.080150735358076</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8168931463536224</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.6728787465404825</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_1_contrast1.08_gamma0.817_sharpness0.673.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,30 +2091,30 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.084191159645058</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8235376552641247</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.9178313096578018</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_S_contrast1.084_gamma0.824_sharpness0.918.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,16 +2124,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.031112795079136</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,22 +2141,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5760484238470557</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>15.43394385358513</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_8_contrast1.031_gamma0.576_equalization15.434.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8438247858576419</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.6678504449254796</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>21.93123397298778</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_E_contrast0.844_sharpness0.668_equalization21.931.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9536507677118881</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9525141575939535</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.4955901648368476</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_S_contrast0.954_gamma0.953_sharpness0.496.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.5525780854336539</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.4085326951184327</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>25.30578967966553</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_1_gamma0.553_sharpness0.409_equalization25.306.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,24 +2292,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>14.26671191760633</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8994524133496845</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.2662629265523868</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_3_brightness14.267_contrast0.899_sharpness0.266.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,24 +2334,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8212141571440095</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.840716438504914</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2359,14 +2359,14 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>20.23880835414101</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_9_gamma0.821_sharpness0.841_equalization20.239.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,15 +2385,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>28.74019488870482</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9230025075818711</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.1032651772075023</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_C_brightness28.74_gamma0.923_sharpness0.103.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>19.62416656631951</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.159807153096676</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.1380641135840958</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_S_brightness19.624_contrast1.16_sharpness0.138.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2465,34 +2465,34 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1.014761419086828</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.1740569206663339</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>23.87111366935405</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_7_contrast1.015_sharpness0.174_equalization23.871.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
